--- a/arxiv_timeline.xlsx
+++ b/arxiv_timeline.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Transformers\arxiv_timeline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAECA61C-66D8-4B34-B9B1-6B4A6952F937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256ACA4C-1BC0-41EE-A194-BC2955C825D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{BEDF6B2E-FFD3-4293-87CA-F570DB0DE229}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Grounded Language-Image Pre-training</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,11 +86,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>glip + dino</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>glip + dino</t>
+    <t>DINOv2: Learning Robust Visual Features
+without Supervision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DINOV2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图像特征</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提出了图像处理为标准数据集的方法和通用特征</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -303,7 +316,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A1EB196C-E2D2-48CA-86F9-40ADD219CC2F}" type="CELLRANGE">
+                    <a:fld id="{9861CC23-BDA1-4AD1-BF9F-BEDE5517F561}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="zh-CN"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -313,7 +326,7 @@
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{B68B86EB-90CF-437A-BD23-5BEEA4998F67}" type="XVALUE">
+                    <a:fld id="{AFCF6075-BF83-466A-940E-8E50DA063880}" type="XVALUE">
                       <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X 值]</a:t>
@@ -349,7 +362,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{460B4ACE-B818-4260-8351-42335FC32FFF}" type="CELLRANGE">
+                    <a:fld id="{28132CE2-2E4D-4C73-8401-777B19B0FAF6}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="zh-CN"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -359,7 +372,7 @@
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{14493643-D94A-4A8C-AB2F-B1DE2EED185B}" type="XVALUE">
+                    <a:fld id="{7AFFBC74-7711-41EB-99B7-01E5B2F14851}" type="XVALUE">
                       <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X 值]</a:t>
@@ -395,7 +408,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A9E87ACF-97E0-4F10-9FD2-6BFB92F0B54A}" type="CELLRANGE">
+                    <a:fld id="{8FF9B820-66C0-4407-9F29-7CB85A76376A}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="zh-CN"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -405,7 +418,7 @@
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{B8007241-D0DC-495A-98DB-246A714C8DEF}" type="XVALUE">
+                    <a:fld id="{6FD4FFEB-A988-41DA-806E-C63A6D20E786}" type="XVALUE">
                       <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X 值]</a:t>
@@ -441,7 +454,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E2B0FB65-304A-4CD2-81A4-6935491787CF}" type="CELLRANGE">
+                    <a:fld id="{066C3D3B-D629-47B8-B3F8-073B7E2608CD}" type="CELLRANGE">
                       <a:rPr lang="en-US" altLang="zh-CN"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -451,7 +464,7 @@
                       <a:t>
 </a:t>
                     </a:r>
-                    <a:fld id="{49F1638B-3B84-45AD-BED7-00A3C5CF28AC}" type="XVALUE">
+                    <a:fld id="{DC4759C6-E76E-49CA-94ED-228483F1F6E3}" type="XVALUE">
                       <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
                       <a:pPr/>
                       <a:t>[X 值]</a:t>
@@ -487,21 +500,37 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="en-US" altLang="zh-CN"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:separator>
-</c:separator>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                    <a:fld id="{201C58B5-41EA-4258-AF7D-E914F99D5595}" type="CELLRANGE">
+                      <a:rPr lang="en-US" altLang="zh-CN"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                      <a:t>
+</a:t>
+                    </a:r>
+                    <a:fld id="{39464426-85FE-4C02-9EF0-7517D6DC5D9B}" type="XVALUE">
+                      <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[X 值]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -3413,6 +3442,9 @@
                 <c:pt idx="4">
                   <c:v>44994</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>45324</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3438,7 +3470,7 @@
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>-50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3464,6 +3496,9 @@
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>Grounding DINO</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>DINOV2</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -4527,7 +4562,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4633,12 +4668,27 @@
         <v>50</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>45324</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E6" s="1" t="s">
-        <v>15</v>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1">
+        <v>-50</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
